--- a/lab02/results.xlsx
+++ b/lab02/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.202</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,22 +561,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.527</t>
+          <t>0.582</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.440</t>
+          <t>0.484</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.527</t>
+          <t>0.582</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -600,27 +600,66 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.198</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.212</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.212</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.100</t>
         </is>
       </c>
     </row>

--- a/lab02/results.xlsx
+++ b/lab02/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.124</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>0.208</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.124</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.084</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,22 +561,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.582</t>
+          <t>0.524</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.484</t>
+          <t>0.439</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.582</t>
+          <t>0.524</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.084</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -600,66 +600,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.099</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.198</t>
+          <t>0.183</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.099</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.084</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>0.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.112</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.212</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.212</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.100</t>
         </is>
       </c>
     </row>
